--- a/democracyaction/direct_democracy.xlsx
+++ b/democracyaction/direct_democracy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865" tabRatio="391" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865" tabRatio="391"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="2404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="2409">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7730,10 +7730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://blog.naver.com/kangbw89</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7751,6 +7747,38 @@
   </si>
   <si>
     <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assembly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제는 직접민주주의로 참여하는 시대입니다.
+지역구 의원이 무슨일을 하는지 확인하고 잘하면 칭찬하고 못하면 비판하며 때로는 토론도 해보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 카카오톡 공유 기능 추가
+- 공유된 링크눌러서 실행시 해당 의원만 보이게 검색어 입력
+- 공유된 링크로 휴대폰 번호 업데이트
+2. 자동 전면광고 제거
+- 평가/공유에 후원하기(광고보기)추가
+- 목록에 광고 추가
+- 후원하기(광고보기)하면 일정시간동안 목록에서 광고 제거
+3. 공지사항 표시방법 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7890,7 +7918,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7946,6 +7974,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8243,27 +8274,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="71" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C2" t="s">
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="49.5">
       <c r="B3" t="s">
-        <v>2402</v>
-      </c>
-    </row>
+        <v>2401</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C4" s="19">
+        <v>42904</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="132">
+      <c r="B5" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="1.5" hidden="1"/>
+    <row r="8" spans="2:3" ht="86.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8272,12 +8328,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:S301"/>
+  <dimension ref="B2:T301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="990" topLeftCell="A285" activePane="bottomLeft"/>
-      <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="I285" sqref="I285"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="990" activePane="bottomLeft"/>
+      <selection activeCell="O301" sqref="O301"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8287,7 +8343,7 @@
     <col min="12" max="12" width="17.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:20">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -8342,8 +8398,11 @@
       <c r="S2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="3" spans="2:19">
+      <c r="T2" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
       <c r="B3">
         <v>1</v>
       </c>
@@ -8377,11 +8436,14 @@
         <v>572</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="2:19">
+      <c r="T3">
+        <v>9770933</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
       <c r="B4">
         <v>2</v>
       </c>
@@ -8417,10 +8479,13 @@
         <v>755</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19">
+        <v>2399</v>
+      </c>
+      <c r="T4">
+        <v>9770279</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5">
         <v>3</v>
       </c>
@@ -8453,8 +8518,11 @@
       <c r="P5" s="2" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="6" spans="2:19">
+      <c r="T5">
+        <v>9771007</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
       <c r="B6">
         <v>4</v>
       </c>
@@ -8481,7 +8549,7 @@
         <v>761</v>
       </c>
       <c r="K6" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>2126</v>
@@ -8492,8 +8560,11 @@
       <c r="P6" s="2" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="7" spans="2:19">
+      <c r="T6">
+        <v>9770931</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
       <c r="B7">
         <v>5</v>
       </c>
@@ -8523,8 +8594,11 @@
       <c r="P7" s="2" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="8" spans="2:19">
+      <c r="T7">
+        <v>9771066</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
       <c r="B8">
         <v>6</v>
       </c>
@@ -8559,8 +8633,11 @@
       <c r="P8" s="2" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="9" spans="2:19">
+      <c r="T8">
+        <v>9770998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
       <c r="B9">
         <v>7</v>
       </c>
@@ -8598,8 +8675,11 @@
       <c r="P9" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="10" spans="2:19">
+      <c r="T9">
+        <v>9770937</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
       <c r="B10">
         <v>8</v>
       </c>
@@ -8628,8 +8708,11 @@
       <c r="P10" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="11" spans="2:19">
+      <c r="T10">
+        <v>9770927</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
       <c r="B11">
         <v>9</v>
       </c>
@@ -8663,8 +8746,11 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="2:19" ht="20.25">
+      <c r="T11">
+        <v>9771033</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="20.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -8705,8 +8791,11 @@
       <c r="Q12" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="13" spans="2:19">
+      <c r="T12">
+        <v>9770712</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
       <c r="B13">
         <v>11</v>
       </c>
@@ -8745,8 +8834,11 @@
         <v>575</v>
       </c>
       <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="2:19">
+      <c r="T13">
+        <v>9770997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
       <c r="B14">
         <v>12</v>
       </c>
@@ -8788,8 +8880,11 @@
         <v>577</v>
       </c>
       <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="2:19">
+      <c r="T14">
+        <v>9770723</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
       <c r="B15">
         <v>13</v>
       </c>
@@ -8824,8 +8919,11 @@
       <c r="P15" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="16" spans="2:19">
+      <c r="T15">
+        <v>9770983</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
       <c r="B16">
         <v>14</v>
       </c>
@@ -8857,8 +8955,11 @@
       <c r="P16" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="17" spans="2:18">
+      <c r="T16">
+        <v>9770941</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
       <c r="B17">
         <v>15</v>
       </c>
@@ -8890,8 +8991,11 @@
       <c r="P17" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="18" spans="2:18">
+      <c r="T17">
+        <v>9770984</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
       <c r="B18">
         <v>16</v>
       </c>
@@ -8920,8 +9024,11 @@
       <c r="P18" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="19" spans="2:18">
+      <c r="T18">
+        <v>9770960</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
       <c r="B19">
         <v>17</v>
       </c>
@@ -8960,8 +9067,11 @@
         <v>581</v>
       </c>
       <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="2:18">
+      <c r="T19">
+        <v>9770527</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
       <c r="B20">
         <v>18</v>
       </c>
@@ -8990,8 +9100,11 @@
       <c r="P20" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="21" spans="2:18">
+      <c r="T20">
+        <v>9771065</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
       <c r="B21">
         <v>19</v>
       </c>
@@ -9029,8 +9142,11 @@
       <c r="P21" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="22" spans="2:18">
+      <c r="T21">
+        <v>9770975</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
       <c r="B22">
         <v>20</v>
       </c>
@@ -9062,8 +9178,11 @@
       <c r="P22" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="23" spans="2:18">
+      <c r="T22">
+        <v>9770981</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
       <c r="B23">
         <v>21</v>
       </c>
@@ -9099,8 +9218,11 @@
         <v>582</v>
       </c>
       <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="2:18">
+      <c r="T23">
+        <v>9770949</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
       <c r="B24">
         <v>22</v>
       </c>
@@ -9135,8 +9257,11 @@
       <c r="P24" s="2" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="25" spans="2:18">
+      <c r="T24">
+        <v>9770934</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
       <c r="B25">
         <v>23</v>
       </c>
@@ -9174,8 +9299,11 @@
       <c r="P25" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="26" spans="2:18">
+      <c r="T25">
+        <v>9770993</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
       <c r="B26">
         <v>24</v>
       </c>
@@ -9207,8 +9335,11 @@
       <c r="P26" t="s">
         <v>2121</v>
       </c>
-    </row>
-    <row r="27" spans="2:18">
+      <c r="T26">
+        <v>9771009</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
       <c r="B27">
         <v>25</v>
       </c>
@@ -9240,8 +9371,11 @@
       <c r="P27" s="2" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="28" spans="2:18">
+      <c r="T27">
+        <v>9770982</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
       <c r="B28">
         <v>26</v>
       </c>
@@ -9279,8 +9413,11 @@
       <c r="P28" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="29" spans="2:18">
+      <c r="T28">
+        <v>9770986</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
       <c r="B29">
         <v>27</v>
       </c>
@@ -9322,8 +9459,11 @@
         <v>583</v>
       </c>
       <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="2:18">
+      <c r="T29">
+        <v>9770741</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
       <c r="B30">
         <v>28</v>
       </c>
@@ -9360,8 +9500,11 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="2:18">
+      <c r="T30">
+        <v>9770991</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
       <c r="B31">
         <v>29</v>
       </c>
@@ -9396,8 +9539,11 @@
       <c r="P31" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="32" spans="2:18">
+      <c r="T31">
+        <v>9770953</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
       <c r="B32">
         <v>30</v>
       </c>
@@ -9432,8 +9578,11 @@
       <c r="P32" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="33" spans="2:18">
+      <c r="T32">
+        <v>9771061</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20">
       <c r="B33">
         <v>31</v>
       </c>
@@ -9468,8 +9617,11 @@
       <c r="P33" s="2" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="34" spans="2:18">
+      <c r="T33">
+        <v>9770746</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
       <c r="B34">
         <v>32</v>
       </c>
@@ -9508,8 +9660,11 @@
         <v>584</v>
       </c>
       <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="2:18">
+      <c r="T34">
+        <v>9770752</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
       <c r="B35">
         <v>33</v>
       </c>
@@ -9548,8 +9703,11 @@
         <v>586</v>
       </c>
       <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="2:18">
+      <c r="T35">
+        <v>9770753</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20">
       <c r="B36">
         <v>34</v>
       </c>
@@ -9587,8 +9745,11 @@
       <c r="P36" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="37" spans="2:18">
+      <c r="T36">
+        <v>9770755</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20">
       <c r="B37">
         <v>35</v>
       </c>
@@ -9624,7 +9785,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:20">
       <c r="B38">
         <v>36</v>
       </c>
@@ -9662,8 +9823,11 @@
       <c r="P38" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="39" spans="2:18">
+      <c r="T38">
+        <v>9770084</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20">
       <c r="B39">
         <v>37</v>
       </c>
@@ -9698,8 +9862,11 @@
       <c r="P39" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="40" spans="2:18">
+      <c r="T39">
+        <v>9770761</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20">
       <c r="B40">
         <v>38</v>
       </c>
@@ -9734,8 +9901,11 @@
       <c r="P40" s="2" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="41" spans="2:18">
+      <c r="T40">
+        <v>9770764</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
       <c r="B41">
         <v>39</v>
       </c>
@@ -9767,8 +9937,11 @@
       <c r="P41" s="2" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="42" spans="2:18">
+      <c r="T41">
+        <v>9771056</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20">
       <c r="B42">
         <v>40</v>
       </c>
@@ -9805,8 +9978,11 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="2:18">
+      <c r="T42">
+        <v>9770911</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20">
       <c r="B43">
         <v>41</v>
       </c>
@@ -9843,8 +10019,11 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="2:18">
+      <c r="T43">
+        <v>9770765</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20">
       <c r="B44">
         <v>42</v>
       </c>
@@ -9883,8 +10062,11 @@
         <v>593</v>
       </c>
       <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="2:18">
+      <c r="T44">
+        <v>9770770</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
       <c r="B45">
         <v>43</v>
       </c>
@@ -9922,8 +10104,11 @@
       <c r="P45" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="46" spans="2:18">
+      <c r="T45">
+        <v>9770090</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20">
       <c r="B46">
         <v>44</v>
       </c>
@@ -9958,8 +10143,11 @@
       <c r="P46" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="47" spans="2:18">
+      <c r="T46">
+        <v>9770347</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20">
       <c r="B47">
         <v>45</v>
       </c>
@@ -9995,8 +10183,11 @@
         <v>952</v>
       </c>
       <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="2:18">
+      <c r="T47">
+        <v>9770774</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20">
       <c r="B48">
         <v>46</v>
       </c>
@@ -10031,8 +10222,11 @@
       <c r="P48" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="49" spans="2:18">
+      <c r="T48">
+        <v>9770929</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20">
       <c r="B49">
         <v>47</v>
       </c>
@@ -10070,8 +10264,11 @@
       <c r="P49" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="50" spans="2:18">
+      <c r="T49">
+        <v>9770950</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20">
       <c r="B50">
         <v>48</v>
       </c>
@@ -10106,8 +10303,11 @@
       <c r="P50" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="51" spans="2:18">
+      <c r="T50">
+        <v>9770995</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20">
       <c r="B51">
         <v>49</v>
       </c>
@@ -10142,8 +10342,11 @@
       <c r="P51" s="2" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="52" spans="2:18">
+      <c r="T51">
+        <v>9770932</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20">
       <c r="B52">
         <v>50</v>
       </c>
@@ -10178,8 +10381,11 @@
       <c r="P52" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="53" spans="2:18">
+      <c r="T52">
+        <v>9770963</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20">
       <c r="B53">
         <v>51</v>
       </c>
@@ -10215,8 +10421,11 @@
         <v>599</v>
       </c>
       <c r="R53" s="2"/>
-    </row>
-    <row r="54" spans="2:18">
+      <c r="T53">
+        <v>9770779</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20">
       <c r="B54">
         <v>52</v>
       </c>
@@ -10254,8 +10463,11 @@
       <c r="P54" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="2:18">
+      <c r="T54">
+        <v>9770573</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20">
       <c r="B55">
         <v>53</v>
       </c>
@@ -10290,8 +10502,11 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-    </row>
-    <row r="56" spans="2:18">
+      <c r="T55">
+        <v>9770980</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20">
       <c r="B56">
         <v>54</v>
       </c>
@@ -10331,8 +10546,11 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
-    </row>
-    <row r="57" spans="2:18">
+      <c r="T56">
+        <v>9770356</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20">
       <c r="B57">
         <v>55</v>
       </c>
@@ -10364,8 +10582,11 @@
       <c r="P57" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="58" spans="2:18">
+      <c r="T57">
+        <v>9771035</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20">
       <c r="B58">
         <v>56</v>
       </c>
@@ -10400,8 +10621,11 @@
       <c r="P58" s="2" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="59" spans="2:18">
+      <c r="T58">
+        <v>9770786</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20">
       <c r="B59">
         <v>57</v>
       </c>
@@ -10436,8 +10660,11 @@
       <c r="P59" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="60" spans="2:18">
+      <c r="T59">
+        <v>9770999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20">
       <c r="B60">
         <v>58</v>
       </c>
@@ -10472,8 +10699,11 @@
       <c r="Q60" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="61" spans="2:18">
+      <c r="T60">
+        <v>9770935</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20">
       <c r="B61">
         <v>59</v>
       </c>
@@ -10508,8 +10738,11 @@
       <c r="P61" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="62" spans="2:18">
+      <c r="T61">
+        <v>9771001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20">
       <c r="B62">
         <v>60</v>
       </c>
@@ -10547,8 +10780,11 @@
       <c r="P62" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="63" spans="2:18">
+      <c r="T62">
+        <v>9770967</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20">
       <c r="B63">
         <v>61</v>
       </c>
@@ -10583,8 +10819,11 @@
       <c r="P63" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="64" spans="2:18">
+      <c r="T63">
+        <v>9771058</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20">
       <c r="B64">
         <v>62</v>
       </c>
@@ -10619,8 +10858,11 @@
       <c r="P64" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="65" spans="2:17">
+      <c r="T64">
+        <v>9770792</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20">
       <c r="B65">
         <v>63</v>
       </c>
@@ -10655,8 +10897,11 @@
       <c r="P65" s="2" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="66" spans="2:17">
+      <c r="T65">
+        <v>9770968</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20">
       <c r="B66">
         <v>64</v>
       </c>
@@ -10691,8 +10936,11 @@
       <c r="P66" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="67" spans="2:17">
+      <c r="T66">
+        <v>9770989</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20">
       <c r="B67">
         <v>65</v>
       </c>
@@ -10724,8 +10972,11 @@
       <c r="P67" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="68" spans="2:17">
+      <c r="T67">
+        <v>9771086</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20">
       <c r="B68">
         <v>66</v>
       </c>
@@ -10760,8 +11011,11 @@
       <c r="P68" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="69" spans="2:17">
+      <c r="T68">
+        <v>9770798</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20">
       <c r="B69">
         <v>67</v>
       </c>
@@ -10802,8 +11056,11 @@
       <c r="Q69" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="70" spans="2:17">
+      <c r="T69">
+        <v>9770587</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20">
       <c r="B70">
         <v>68</v>
       </c>
@@ -10844,8 +11101,11 @@
       <c r="Q70" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="71" spans="2:17">
+      <c r="T70">
+        <v>9770372</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20">
       <c r="B71">
         <v>69</v>
       </c>
@@ -10874,8 +11134,11 @@
       <c r="P71" s="2" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="72" spans="2:17">
+      <c r="T71">
+        <v>9771017</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20">
       <c r="B72">
         <v>70</v>
       </c>
@@ -10916,8 +11179,11 @@
       <c r="Q72" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="73" spans="2:17">
+      <c r="T72">
+        <v>9770375</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20">
       <c r="B73">
         <v>71</v>
       </c>
@@ -10949,8 +11215,11 @@
       <c r="P73" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="74" spans="2:17">
+      <c r="T73">
+        <v>9771010</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20">
       <c r="B74">
         <v>72</v>
       </c>
@@ -10982,8 +11251,11 @@
       <c r="P74" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="75" spans="2:17">
+      <c r="T74">
+        <v>9771037</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20">
       <c r="B75">
         <v>73</v>
       </c>
@@ -11021,8 +11293,11 @@
       <c r="Q75" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="76" spans="2:17">
+      <c r="T75">
+        <v>9770380</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20">
       <c r="B76">
         <v>74</v>
       </c>
@@ -11060,8 +11335,11 @@
       <c r="P76" s="2" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="77" spans="2:17">
+      <c r="T76">
+        <v>9770871</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20">
       <c r="B77">
         <v>75</v>
       </c>
@@ -11102,8 +11380,11 @@
       <c r="Q77" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="78" spans="2:17">
+      <c r="T77">
+        <v>9770872</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20">
       <c r="B78">
         <v>76</v>
       </c>
@@ -11144,8 +11425,11 @@
       <c r="Q78" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="79" spans="2:17">
+      <c r="T78">
+        <v>9770386</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20">
       <c r="B79">
         <v>77</v>
       </c>
@@ -11186,8 +11470,11 @@
       <c r="Q79" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="80" spans="2:17">
+      <c r="T79">
+        <v>9771038</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20">
       <c r="B80">
         <v>78</v>
       </c>
@@ -11222,8 +11509,11 @@
       <c r="P80" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="81" spans="2:17">
+      <c r="T80">
+        <v>9770966</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20">
       <c r="B81">
         <v>79</v>
       </c>
@@ -11258,8 +11548,11 @@
       <c r="P81" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="82" spans="2:17">
+      <c r="T81">
+        <v>9770874</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20">
       <c r="B82">
         <v>80</v>
       </c>
@@ -11297,8 +11590,11 @@
       <c r="Q82" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="83" spans="2:17">
+      <c r="T82">
+        <v>9770807</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20">
       <c r="B83">
         <v>81</v>
       </c>
@@ -11333,8 +11629,11 @@
       <c r="P83" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="84" spans="2:17">
+      <c r="T83">
+        <v>9770808</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20">
       <c r="B84">
         <v>82</v>
       </c>
@@ -11369,8 +11668,11 @@
       <c r="P84" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="85" spans="2:17">
+      <c r="T84">
+        <v>9770876</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20">
       <c r="B85">
         <v>83</v>
       </c>
@@ -11405,8 +11707,11 @@
       <c r="P85" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="86" spans="2:17">
+      <c r="T85">
+        <v>9770813</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20">
       <c r="B86">
         <v>84</v>
       </c>
@@ -11438,8 +11743,11 @@
       <c r="P86" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="87" spans="2:17">
+      <c r="T86">
+        <v>9770905</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20">
       <c r="B87">
         <v>85</v>
       </c>
@@ -11477,8 +11785,11 @@
       <c r="P87" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="88" spans="2:17">
+      <c r="T87">
+        <v>9770414</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20">
       <c r="B88">
         <v>86</v>
       </c>
@@ -11513,8 +11824,11 @@
       <c r="P88" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="89" spans="2:17">
+      <c r="T88">
+        <v>9770416</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20">
       <c r="B89">
         <v>87</v>
       </c>
@@ -11549,8 +11863,11 @@
       <c r="P89" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="90" spans="2:17">
+      <c r="T89">
+        <v>9771067</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20">
       <c r="B90">
         <v>88</v>
       </c>
@@ -11588,8 +11905,11 @@
       <c r="P90" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="91" spans="2:17">
+      <c r="T90">
+        <v>9770826</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20">
       <c r="B91">
         <v>89</v>
       </c>
@@ -11630,8 +11950,11 @@
       <c r="Q91" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="92" spans="2:17">
+      <c r="T91">
+        <v>9770878</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20">
       <c r="B92">
         <v>90</v>
       </c>
@@ -11666,8 +11989,11 @@
       <c r="P92" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="93" spans="2:17">
+      <c r="T92">
+        <v>9771060</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20">
       <c r="B93">
         <v>91</v>
       </c>
@@ -11708,8 +12034,11 @@
       <c r="Q93" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="94" spans="2:17">
+      <c r="T93">
+        <v>9770194</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20">
       <c r="B94">
         <v>92</v>
       </c>
@@ -11735,8 +12064,11 @@
       <c r="P94" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="95" spans="2:17">
+      <c r="T94">
+        <v>9771063</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20">
       <c r="B95">
         <v>93</v>
       </c>
@@ -11777,8 +12109,11 @@
       <c r="Q95" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="96" spans="2:17">
+      <c r="T95">
+        <v>9770623</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20">
       <c r="B96">
         <v>94</v>
       </c>
@@ -11816,8 +12151,11 @@
       <c r="P96" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="97" spans="2:17">
+      <c r="T96">
+        <v>9770836</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20">
       <c r="B97">
         <v>95</v>
       </c>
@@ -11858,8 +12196,11 @@
       <c r="Q97" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="98" spans="2:17">
+      <c r="T97">
+        <v>9770879</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20">
       <c r="B98">
         <v>96</v>
       </c>
@@ -11894,8 +12235,11 @@
       <c r="P98" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="99" spans="2:17">
+      <c r="T98">
+        <v>9770939</v>
+      </c>
+    </row>
+    <row r="99" spans="2:20">
       <c r="B99">
         <v>97</v>
       </c>
@@ -11933,8 +12277,11 @@
       <c r="P99" s="2" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="100" spans="2:17">
+      <c r="T99">
+        <v>9770839</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20">
       <c r="B100">
         <v>98</v>
       </c>
@@ -11972,8 +12319,11 @@
       <c r="P100" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="101" spans="2:17">
+      <c r="T100">
+        <v>9771000</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20">
       <c r="B101">
         <v>99</v>
       </c>
@@ -12005,8 +12355,11 @@
       <c r="P101" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="102" spans="2:17">
+      <c r="T101">
+        <v>9770951</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20">
       <c r="B102">
         <v>100</v>
       </c>
@@ -12044,8 +12397,11 @@
       <c r="P102" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="103" spans="2:17">
+      <c r="T102">
+        <v>9770846</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20">
       <c r="B103">
         <v>101</v>
       </c>
@@ -12086,8 +12442,11 @@
       <c r="Q103" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="104" spans="2:17">
+      <c r="T103">
+        <v>9770946</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20">
       <c r="B104">
         <v>102</v>
       </c>
@@ -12116,8 +12475,11 @@
       <c r="P104" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="105" spans="2:17">
+      <c r="T104">
+        <v>9770926</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20">
       <c r="B105">
         <v>103</v>
       </c>
@@ -12152,8 +12514,11 @@
       <c r="P105" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="106" spans="2:17">
+      <c r="T105">
+        <v>9770881</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20">
       <c r="B106">
         <v>104</v>
       </c>
@@ -12188,8 +12553,11 @@
       <c r="P106" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="107" spans="2:17">
+      <c r="T106">
+        <v>9770230</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20">
       <c r="B107">
         <v>105</v>
       </c>
@@ -12227,8 +12595,11 @@
       <c r="P107" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="108" spans="2:17">
+      <c r="T107">
+        <v>9770988</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20">
       <c r="B108">
         <v>106</v>
       </c>
@@ -12263,8 +12634,11 @@
       <c r="P108" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="109" spans="2:17">
+      <c r="T108">
+        <v>9771068</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20">
       <c r="B109">
         <v>107</v>
       </c>
@@ -12299,8 +12673,11 @@
       <c r="P109" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="110" spans="2:17">
+      <c r="T109">
+        <v>9771064</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20">
       <c r="B110">
         <v>108</v>
       </c>
@@ -12335,8 +12712,11 @@
       <c r="P110" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="111" spans="2:17">
+      <c r="T110">
+        <v>9770973</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20">
       <c r="B111">
         <v>109</v>
       </c>
@@ -12371,8 +12751,11 @@
       <c r="P111" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="112" spans="2:17">
+      <c r="T111">
+        <v>9770990</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20">
       <c r="B112">
         <v>110</v>
       </c>
@@ -12410,8 +12793,11 @@
       <c r="P112" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="113" spans="2:17">
+      <c r="T112">
+        <v>9770456</v>
+      </c>
+    </row>
+    <row r="113" spans="2:20">
       <c r="B113">
         <v>111</v>
       </c>
@@ -12446,8 +12832,11 @@
       <c r="P113" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="114" spans="2:17">
+      <c r="T113">
+        <v>9770852</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20">
       <c r="B114">
         <v>112</v>
       </c>
@@ -12485,8 +12874,11 @@
       <c r="P114" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="115" spans="2:17">
+      <c r="T114">
+        <v>9770462</v>
+      </c>
+    </row>
+    <row r="115" spans="2:20">
       <c r="B115">
         <v>113</v>
       </c>
@@ -12512,8 +12904,11 @@
       <c r="P115" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="116" spans="2:17">
+      <c r="T115">
+        <v>9771059</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20">
       <c r="B116">
         <v>114</v>
       </c>
@@ -12545,8 +12940,11 @@
       <c r="P116" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="117" spans="2:17">
+      <c r="T116">
+        <v>9770952</v>
+      </c>
+    </row>
+    <row r="117" spans="2:20">
       <c r="B117">
         <v>115</v>
       </c>
@@ -12587,8 +12985,11 @@
       <c r="Q117" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="118" spans="2:17">
+      <c r="T117">
+        <v>9770659</v>
+      </c>
+    </row>
+    <row r="118" spans="2:20">
       <c r="B118">
         <v>116</v>
       </c>
@@ -12626,8 +13027,11 @@
       <c r="Q118" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="119" spans="2:17">
+      <c r="T118">
+        <v>9770994</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20">
       <c r="B119">
         <v>117</v>
       </c>
@@ -12671,8 +13075,11 @@
       <c r="Q119" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="120" spans="2:17">
+      <c r="T119">
+        <v>9770859</v>
+      </c>
+    </row>
+    <row r="120" spans="2:20">
       <c r="B120">
         <v>118</v>
       </c>
@@ -12707,8 +13114,11 @@
       <c r="P120" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="121" spans="2:17">
+      <c r="T120">
+        <v>9770676</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20">
       <c r="B121">
         <v>119</v>
       </c>
@@ -12746,8 +13156,11 @@
       <c r="P121" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="122" spans="2:17">
+      <c r="T121">
+        <v>9770959</v>
+      </c>
+    </row>
+    <row r="122" spans="2:20">
       <c r="B122">
         <v>120</v>
       </c>
@@ -12779,8 +13192,11 @@
       <c r="P122" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="123" spans="2:17">
+      <c r="T122">
+        <v>9770864</v>
+      </c>
+    </row>
+    <row r="123" spans="2:20">
       <c r="B123">
         <v>121</v>
       </c>
@@ -12815,8 +13231,11 @@
       <c r="P123" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="124" spans="2:17">
+      <c r="T123">
+        <v>9770936</v>
+      </c>
+    </row>
+    <row r="124" spans="2:20">
       <c r="B124">
         <v>122</v>
       </c>
@@ -12848,8 +13267,11 @@
       <c r="P124" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="125" spans="2:17">
+      <c r="T124">
+        <v>9771036</v>
+      </c>
+    </row>
+    <row r="125" spans="2:20">
       <c r="B125">
         <v>123</v>
       </c>
@@ -12881,8 +13303,11 @@
       <c r="P125" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="126" spans="2:17">
+      <c r="T125">
+        <v>9770512</v>
+      </c>
+    </row>
+    <row r="126" spans="2:20">
       <c r="B126">
         <v>124</v>
       </c>
@@ -12914,8 +13339,11 @@
       <c r="P126" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="127" spans="2:17">
+      <c r="T126">
+        <v>9771054</v>
+      </c>
+    </row>
+    <row r="127" spans="2:20">
       <c r="B127">
         <v>125</v>
       </c>
@@ -12950,8 +13378,11 @@
       <c r="P127" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="128" spans="2:17">
+      <c r="T127">
+        <v>9770708</v>
+      </c>
+    </row>
+    <row r="128" spans="2:20">
       <c r="B128">
         <v>126</v>
       </c>
@@ -12983,8 +13414,11 @@
       <c r="P128" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="129" spans="2:17">
+      <c r="T128">
+        <v>9770961</v>
+      </c>
+    </row>
+    <row r="129" spans="2:20">
       <c r="B129">
         <v>127</v>
       </c>
@@ -13022,8 +13456,11 @@
       <c r="P129" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="130" spans="2:17">
+      <c r="T129">
+        <v>9770956</v>
+      </c>
+    </row>
+    <row r="130" spans="2:20">
       <c r="B130">
         <v>128</v>
       </c>
@@ -13064,8 +13501,11 @@
       <c r="P130" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="131" spans="2:17">
+      <c r="T130">
+        <v>9771004</v>
+      </c>
+    </row>
+    <row r="131" spans="2:20">
       <c r="B131">
         <v>129</v>
       </c>
@@ -13103,8 +13543,11 @@
       <c r="P131" s="2" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="132" spans="2:17">
+      <c r="T131">
+        <v>9770679</v>
+      </c>
+    </row>
+    <row r="132" spans="2:20">
       <c r="B132">
         <v>130</v>
       </c>
@@ -13142,8 +13585,11 @@
       <c r="Q132" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="133" spans="2:17">
+      <c r="T132">
+        <v>9770523</v>
+      </c>
+    </row>
+    <row r="133" spans="2:20">
       <c r="B133">
         <v>131</v>
       </c>
@@ -13169,8 +13615,11 @@
       <c r="O133" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="134" spans="2:17">
+      <c r="T133">
+        <v>9771044</v>
+      </c>
+    </row>
+    <row r="134" spans="2:20">
       <c r="B134">
         <v>132</v>
       </c>
@@ -13205,8 +13654,11 @@
       <c r="P134" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="135" spans="2:17">
+      <c r="T134">
+        <v>9770716</v>
+      </c>
+    </row>
+    <row r="135" spans="2:20">
       <c r="B135">
         <v>133</v>
       </c>
@@ -13247,8 +13699,11 @@
       <c r="Q135" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="136" spans="2:17">
+      <c r="T135">
+        <v>9770719</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20">
       <c r="B136">
         <v>134</v>
       </c>
@@ -13286,8 +13741,11 @@
       <c r="P136" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="137" spans="2:17">
+      <c r="T136">
+        <v>9770721</v>
+      </c>
+    </row>
+    <row r="137" spans="2:20">
       <c r="B137">
         <v>135</v>
       </c>
@@ -13325,8 +13783,11 @@
       <c r="Q137" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="138" spans="2:17">
+      <c r="T137">
+        <v>9770725</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20">
       <c r="B138">
         <v>136</v>
       </c>
@@ -13361,8 +13822,11 @@
       <c r="P138" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="139" spans="2:17">
+      <c r="T138">
+        <v>9771024</v>
+      </c>
+    </row>
+    <row r="139" spans="2:20">
       <c r="B139">
         <v>137</v>
       </c>
@@ -13403,8 +13867,11 @@
       <c r="P139" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="140" spans="2:17">
+      <c r="T139">
+        <v>9770930</v>
+      </c>
+    </row>
+    <row r="140" spans="2:20">
       <c r="B140">
         <v>138</v>
       </c>
@@ -13445,8 +13912,11 @@
       <c r="P140" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="141" spans="2:17">
+      <c r="T140">
+        <v>9770985</v>
+      </c>
+    </row>
+    <row r="141" spans="2:20">
       <c r="B141">
         <v>139</v>
       </c>
@@ -13484,8 +13954,11 @@
       <c r="P141" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="142" spans="2:17">
+      <c r="T141">
+        <v>9770727</v>
+      </c>
+    </row>
+    <row r="142" spans="2:20">
       <c r="B142">
         <v>140</v>
       </c>
@@ -13520,8 +13993,11 @@
       <c r="P142" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="143" spans="2:17">
+      <c r="T142">
+        <v>9770974</v>
+      </c>
+    </row>
+    <row r="143" spans="2:20">
       <c r="B143">
         <v>141</v>
       </c>
@@ -13553,8 +14029,11 @@
       <c r="P143" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="144" spans="2:17">
+      <c r="T143">
+        <v>9771046</v>
+      </c>
+    </row>
+    <row r="144" spans="2:20">
       <c r="B144">
         <v>142</v>
       </c>
@@ -13586,8 +14065,11 @@
       <c r="P144" s="2" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="145" spans="2:17">
+      <c r="T144">
+        <v>9771053</v>
+      </c>
+    </row>
+    <row r="145" spans="2:20">
       <c r="B145">
         <v>143</v>
       </c>
@@ -13619,8 +14101,11 @@
       <c r="P145" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="146" spans="2:17">
+      <c r="T145">
+        <v>9771049</v>
+      </c>
+    </row>
+    <row r="146" spans="2:20">
       <c r="B146">
         <v>144</v>
       </c>
@@ -13652,8 +14137,11 @@
       <c r="P146" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="147" spans="2:17">
+      <c r="T146">
+        <v>9770310</v>
+      </c>
+    </row>
+    <row r="147" spans="2:20">
       <c r="B147">
         <v>145</v>
       </c>
@@ -13685,8 +14173,11 @@
       <c r="P147" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="148" spans="2:17">
+      <c r="T147">
+        <v>9771087</v>
+      </c>
+    </row>
+    <row r="148" spans="2:20">
       <c r="B148">
         <v>146</v>
       </c>
@@ -13712,8 +14203,11 @@
       <c r="O148" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="149" spans="2:17">
+      <c r="T148">
+        <v>9771023</v>
+      </c>
+    </row>
+    <row r="149" spans="2:20">
       <c r="B149">
         <v>147</v>
       </c>
@@ -13754,8 +14248,11 @@
       <c r="Q149" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="150" spans="2:17">
+      <c r="T149">
+        <v>9770316</v>
+      </c>
+    </row>
+    <row r="150" spans="2:20">
       <c r="B150">
         <v>148</v>
       </c>
@@ -13787,8 +14284,11 @@
       <c r="P150" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="151" spans="2:17">
+      <c r="T150">
+        <v>9771048</v>
+      </c>
+    </row>
+    <row r="151" spans="2:20">
       <c r="B151">
         <v>149</v>
       </c>
@@ -13826,8 +14326,11 @@
       <c r="P151" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="152" spans="2:17">
+      <c r="T151">
+        <v>9770740</v>
+      </c>
+    </row>
+    <row r="152" spans="2:20">
       <c r="B152">
         <v>150</v>
       </c>
@@ -13862,8 +14365,11 @@
       <c r="P152" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="153" spans="2:17">
+      <c r="T152">
+        <v>9770742</v>
+      </c>
+    </row>
+    <row r="153" spans="2:20">
       <c r="B153">
         <v>151</v>
       </c>
@@ -13904,8 +14410,11 @@
       <c r="P153" s="2" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="154" spans="2:17">
+      <c r="T153">
+        <v>9770670</v>
+      </c>
+    </row>
+    <row r="154" spans="2:20">
       <c r="B154">
         <v>152</v>
       </c>
@@ -13943,8 +14452,11 @@
       <c r="P154" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="155" spans="2:17">
+      <c r="T154">
+        <v>9770744</v>
+      </c>
+    </row>
+    <row r="155" spans="2:20">
       <c r="B155">
         <v>153</v>
       </c>
@@ -13976,8 +14488,11 @@
       <c r="P155" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="156" spans="2:17">
+      <c r="T155">
+        <v>9771055</v>
+      </c>
+    </row>
+    <row r="156" spans="2:20">
       <c r="B156">
         <v>154</v>
       </c>
@@ -14015,8 +14530,11 @@
       <c r="P156" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="157" spans="2:17">
+      <c r="T156">
+        <v>9770903</v>
+      </c>
+    </row>
+    <row r="157" spans="2:20">
       <c r="B157">
         <v>155</v>
       </c>
@@ -14045,8 +14563,11 @@
       <c r="P157" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="158" spans="2:17">
+      <c r="T157">
+        <v>9771042</v>
+      </c>
+    </row>
+    <row r="158" spans="2:20">
       <c r="B158">
         <v>156</v>
       </c>
@@ -14081,8 +14602,11 @@
       <c r="P158" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="159" spans="2:17">
+      <c r="T158">
+        <v>9770964</v>
+      </c>
+    </row>
+    <row r="159" spans="2:20">
       <c r="B159">
         <v>157</v>
       </c>
@@ -14114,8 +14638,11 @@
       <c r="P159" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="160" spans="2:17">
+      <c r="T159">
+        <v>9770767</v>
+      </c>
+    </row>
+    <row r="160" spans="2:20">
       <c r="B160">
         <v>158</v>
       </c>
@@ -14147,8 +14674,11 @@
       <c r="O160" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="161" spans="2:17">
+      <c r="T160">
+        <v>9770768</v>
+      </c>
+    </row>
+    <row r="161" spans="2:20">
       <c r="B161">
         <v>159</v>
       </c>
@@ -14180,8 +14710,11 @@
       <c r="P161" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="162" spans="2:17">
+      <c r="T161">
+        <v>9770908</v>
+      </c>
+    </row>
+    <row r="162" spans="2:20">
       <c r="B162">
         <v>160</v>
       </c>
@@ -14216,8 +14749,11 @@
       <c r="P162" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="163" spans="2:17">
+      <c r="T162">
+        <v>9770899</v>
+      </c>
+    </row>
+    <row r="163" spans="2:20">
       <c r="B163">
         <v>161</v>
       </c>
@@ -14252,8 +14788,11 @@
       <c r="P163" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="164" spans="2:17">
+      <c r="T163">
+        <v>9770944</v>
+      </c>
+    </row>
+    <row r="164" spans="2:20">
       <c r="B164">
         <v>162</v>
       </c>
@@ -14285,8 +14824,11 @@
       <c r="P164" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="165" spans="2:17">
+      <c r="T164">
+        <v>9770987</v>
+      </c>
+    </row>
+    <row r="165" spans="2:20">
       <c r="B165">
         <v>163</v>
       </c>
@@ -14318,8 +14860,11 @@
       <c r="P165" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="166" spans="2:17">
+      <c r="T165">
+        <v>9771030</v>
+      </c>
+    </row>
+    <row r="166" spans="2:20">
       <c r="B166">
         <v>164</v>
       </c>
@@ -14351,8 +14896,11 @@
       <c r="P166" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="167" spans="2:17">
+      <c r="T166">
+        <v>9771005</v>
+      </c>
+    </row>
+    <row r="167" spans="2:20">
       <c r="B167">
         <v>165</v>
       </c>
@@ -14387,8 +14935,11 @@
       <c r="P167" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="168" spans="2:17">
+      <c r="T167">
+        <v>9770904</v>
+      </c>
+    </row>
+    <row r="168" spans="2:20">
       <c r="B168">
         <v>166</v>
       </c>
@@ -14423,8 +14974,11 @@
       <c r="P168" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="169" spans="2:17">
+      <c r="T168">
+        <v>9771025</v>
+      </c>
+    </row>
+    <row r="169" spans="2:20">
       <c r="B169">
         <v>167</v>
       </c>
@@ -14465,8 +15019,11 @@
       <c r="Q169" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="170" spans="2:17">
+      <c r="T169">
+        <v>9770898</v>
+      </c>
+    </row>
+    <row r="170" spans="2:20">
       <c r="B170">
         <v>168</v>
       </c>
@@ -14507,8 +15064,11 @@
       <c r="Q170" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="171" spans="2:17">
+      <c r="T170">
+        <v>9771008</v>
+      </c>
+    </row>
+    <row r="171" spans="2:20">
       <c r="B171">
         <v>169</v>
       </c>
@@ -14543,8 +15103,11 @@
       <c r="P171" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="172" spans="2:17">
+      <c r="T171">
+        <v>9770996</v>
+      </c>
+    </row>
+    <row r="172" spans="2:20">
       <c r="B172">
         <v>170</v>
       </c>
@@ -14576,8 +15139,11 @@
       <c r="P172" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="173" spans="2:17">
+      <c r="T172">
+        <v>9771039</v>
+      </c>
+    </row>
+    <row r="173" spans="2:20">
       <c r="B173">
         <v>171</v>
       </c>
@@ -14606,8 +15172,11 @@
       <c r="P173" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="174" spans="2:17">
+      <c r="T173">
+        <v>9771045</v>
+      </c>
+    </row>
+    <row r="174" spans="2:20">
       <c r="B174">
         <v>172</v>
       </c>
@@ -14639,8 +15208,11 @@
       <c r="P174" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="175" spans="2:17">
+      <c r="T174">
+        <v>9770921</v>
+      </c>
+    </row>
+    <row r="175" spans="2:20">
       <c r="B175">
         <v>173</v>
       </c>
@@ -14681,8 +15253,11 @@
       <c r="Q175" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="176" spans="2:17">
+      <c r="T175">
+        <v>9770138</v>
+      </c>
+    </row>
+    <row r="176" spans="2:20">
       <c r="B176">
         <v>174</v>
       </c>
@@ -14720,8 +15295,11 @@
       <c r="P176" s="2" t="s">
         <v>2396</v>
       </c>
-    </row>
-    <row r="177" spans="2:17">
+      <c r="T176">
+        <v>9770919</v>
+      </c>
+    </row>
+    <row r="177" spans="2:20">
       <c r="B177">
         <v>175</v>
       </c>
@@ -14747,8 +15325,11 @@
       <c r="P177" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="178" spans="2:17">
+      <c r="T177">
+        <v>9771034</v>
+      </c>
+    </row>
+    <row r="178" spans="2:20">
       <c r="B178">
         <v>176</v>
       </c>
@@ -14786,8 +15367,11 @@
       <c r="P178" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="179" spans="2:17">
+      <c r="T178">
+        <v>9770591</v>
+      </c>
+    </row>
+    <row r="179" spans="2:20">
       <c r="B179">
         <v>177</v>
       </c>
@@ -14822,8 +15406,11 @@
       <c r="P179" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="180" spans="2:17">
+      <c r="T179">
+        <v>9770802</v>
+      </c>
+    </row>
+    <row r="180" spans="2:20">
       <c r="B180">
         <v>178</v>
       </c>
@@ -14861,8 +15448,11 @@
       <c r="Q180" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="181" spans="2:17">
+      <c r="T180">
+        <v>9770592</v>
+      </c>
+    </row>
+    <row r="181" spans="2:20">
       <c r="B181">
         <v>179</v>
       </c>
@@ -14900,8 +15490,11 @@
       <c r="P181" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="182" spans="2:17">
+      <c r="T181">
+        <v>9770387</v>
+      </c>
+    </row>
+    <row r="182" spans="2:20">
       <c r="B182">
         <v>180</v>
       </c>
@@ -14930,8 +15523,11 @@
       <c r="P182" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="183" spans="2:17">
+      <c r="T182">
+        <v>9771050</v>
+      </c>
+    </row>
+    <row r="183" spans="2:20">
       <c r="B183">
         <v>181</v>
       </c>
@@ -14969,8 +15565,11 @@
       <c r="P183" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="184" spans="2:17">
+      <c r="T183">
+        <v>9770596</v>
+      </c>
+    </row>
+    <row r="184" spans="2:20">
       <c r="B184">
         <v>182</v>
       </c>
@@ -14999,8 +15598,11 @@
       <c r="Q184" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="185" spans="2:17">
+      <c r="T184">
+        <v>9770955</v>
+      </c>
+    </row>
+    <row r="185" spans="2:20">
       <c r="B185">
         <v>183</v>
       </c>
@@ -15035,8 +15637,11 @@
       <c r="P185" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="186" spans="2:17">
+      <c r="T185">
+        <v>9770598</v>
+      </c>
+    </row>
+    <row r="186" spans="2:20">
       <c r="B186">
         <v>184</v>
       </c>
@@ -15065,8 +15670,11 @@
       <c r="P186" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="187" spans="2:17">
+      <c r="T186">
+        <v>9770811</v>
+      </c>
+    </row>
+    <row r="187" spans="2:20">
       <c r="B187">
         <v>185</v>
       </c>
@@ -15104,8 +15712,11 @@
       <c r="Q187" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="188" spans="2:17">
+      <c r="T187">
+        <v>9770812</v>
+      </c>
+    </row>
+    <row r="188" spans="2:20">
       <c r="B188">
         <v>186</v>
       </c>
@@ -15137,8 +15748,11 @@
       <c r="P188" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="189" spans="2:17">
+      <c r="T188">
+        <v>9771051</v>
+      </c>
+    </row>
+    <row r="189" spans="2:20">
       <c r="B189">
         <v>187</v>
       </c>
@@ -15167,8 +15781,11 @@
       <c r="P189" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="190" spans="2:17">
+      <c r="T189">
+        <v>9771032</v>
+      </c>
+    </row>
+    <row r="190" spans="2:20">
       <c r="B190">
         <v>188</v>
       </c>
@@ -15209,8 +15826,11 @@
       <c r="Q190" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="191" spans="2:17">
+      <c r="T190">
+        <v>9770406</v>
+      </c>
+    </row>
+    <row r="191" spans="2:20">
       <c r="B191">
         <v>189</v>
       </c>
@@ -15245,8 +15865,11 @@
       <c r="P191" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="192" spans="2:17">
+      <c r="T191">
+        <v>9771028</v>
+      </c>
+    </row>
+    <row r="192" spans="2:20">
       <c r="B192">
         <v>190</v>
       </c>
@@ -15287,8 +15910,11 @@
       <c r="Q192" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="193" spans="2:17">
+      <c r="T192">
+        <v>9770602</v>
+      </c>
+    </row>
+    <row r="193" spans="2:20">
       <c r="B193">
         <v>191</v>
       </c>
@@ -15323,8 +15949,11 @@
       <c r="P193" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="194" spans="2:17">
+      <c r="T193">
+        <v>9771003</v>
+      </c>
+    </row>
+    <row r="194" spans="2:20">
       <c r="B194">
         <v>192</v>
       </c>
@@ -15362,8 +15991,11 @@
       <c r="P194" s="2" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="195" spans="2:17">
+      <c r="T194">
+        <v>9770824</v>
+      </c>
+    </row>
+    <row r="195" spans="2:20">
       <c r="B195">
         <v>193</v>
       </c>
@@ -15398,8 +16030,11 @@
       <c r="P195" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="196" spans="2:17">
+      <c r="T195">
+        <v>9770825</v>
+      </c>
+    </row>
+    <row r="196" spans="2:20">
       <c r="B196">
         <v>194</v>
       </c>
@@ -15437,8 +16072,11 @@
       <c r="P196" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="197" spans="2:17">
+      <c r="T196">
+        <v>9770972</v>
+      </c>
+    </row>
+    <row r="197" spans="2:20">
       <c r="B197">
         <v>195</v>
       </c>
@@ -15467,8 +16105,11 @@
       <c r="P197" s="2" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="198" spans="2:17">
+      <c r="T197">
+        <v>9770947</v>
+      </c>
+    </row>
+    <row r="198" spans="2:20">
       <c r="B198">
         <v>196</v>
       </c>
@@ -15503,8 +16144,11 @@
       <c r="P198" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="199" spans="2:17">
+      <c r="T198">
+        <v>9770829</v>
+      </c>
+    </row>
+    <row r="199" spans="2:20">
       <c r="B199">
         <v>197</v>
       </c>
@@ -15536,8 +16180,11 @@
       <c r="P199" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="200" spans="2:17">
+      <c r="T199">
+        <v>9771040</v>
+      </c>
+    </row>
+    <row r="200" spans="2:20">
       <c r="B200">
         <v>198</v>
       </c>
@@ -15572,8 +16219,11 @@
       <c r="Q200" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="201" spans="2:17">
+      <c r="T200">
+        <v>9770914</v>
+      </c>
+    </row>
+    <row r="201" spans="2:20">
       <c r="B201">
         <v>199</v>
       </c>
@@ -15611,8 +16261,11 @@
       <c r="P201" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="202" spans="2:17">
+      <c r="T201">
+        <v>9770499</v>
+      </c>
+    </row>
+    <row r="202" spans="2:20">
       <c r="B202">
         <v>200</v>
       </c>
@@ -15644,8 +16297,11 @@
       <c r="P202" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="203" spans="2:17">
+      <c r="T202">
+        <v>9770621</v>
+      </c>
+    </row>
+    <row r="203" spans="2:20">
       <c r="B203">
         <v>201</v>
       </c>
@@ -15686,8 +16342,11 @@
       <c r="Q203" t="s">
         <v>1661</v>
       </c>
-    </row>
-    <row r="204" spans="2:17">
+      <c r="T203">
+        <v>9770835</v>
+      </c>
+    </row>
+    <row r="204" spans="2:20">
       <c r="B204">
         <v>202</v>
       </c>
@@ -15716,8 +16375,11 @@
       <c r="P204" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="205" spans="2:17">
+      <c r="T204">
+        <v>9771002</v>
+      </c>
+    </row>
+    <row r="205" spans="2:20">
       <c r="B205">
         <v>203</v>
       </c>
@@ -15755,8 +16417,11 @@
       <c r="P205" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="206" spans="2:17">
+      <c r="T205">
+        <v>9770685</v>
+      </c>
+    </row>
+    <row r="206" spans="2:20">
       <c r="B206">
         <v>204</v>
       </c>
@@ -15791,8 +16456,11 @@
       <c r="P206" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="207" spans="2:17">
+      <c r="T206">
+        <v>9770837</v>
+      </c>
+    </row>
+    <row r="207" spans="2:20">
       <c r="B207">
         <v>205</v>
       </c>
@@ -15830,8 +16498,11 @@
       <c r="P207" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="208" spans="2:17">
+      <c r="T207">
+        <v>9770838</v>
+      </c>
+    </row>
+    <row r="208" spans="2:20">
       <c r="B208">
         <v>206</v>
       </c>
@@ -15866,8 +16537,11 @@
       <c r="P208" t="s">
         <v>1683</v>
       </c>
-    </row>
-    <row r="209" spans="2:17">
+      <c r="T208">
+        <v>9771041</v>
+      </c>
+    </row>
+    <row r="209" spans="2:20">
       <c r="B209">
         <v>207</v>
       </c>
@@ -15905,8 +16579,11 @@
       <c r="P209" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="210" spans="2:17">
+      <c r="T209">
+        <v>9771026</v>
+      </c>
+    </row>
+    <row r="210" spans="2:20">
       <c r="B210">
         <v>208</v>
       </c>
@@ -15938,8 +16615,11 @@
       <c r="P210" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="211" spans="2:17">
+      <c r="T210">
+        <v>9770954</v>
+      </c>
+    </row>
+    <row r="211" spans="2:20">
       <c r="B211">
         <v>209</v>
       </c>
@@ -15968,8 +16648,11 @@
       <c r="P211" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="212" spans="2:17">
+      <c r="T211">
+        <v>9771047</v>
+      </c>
+    </row>
+    <row r="212" spans="2:20">
       <c r="B212">
         <v>210</v>
       </c>
@@ -16004,8 +16687,11 @@
       <c r="P212" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="213" spans="2:17">
+      <c r="T212">
+        <v>9770439</v>
+      </c>
+    </row>
+    <row r="213" spans="2:20">
       <c r="B213">
         <v>211</v>
       </c>
@@ -16040,8 +16726,11 @@
       <c r="P213" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="214" spans="2:17">
+      <c r="T213">
+        <v>9770907</v>
+      </c>
+    </row>
+    <row r="214" spans="2:20">
       <c r="B214">
         <v>212</v>
       </c>
@@ -16082,8 +16771,11 @@
       <c r="Q214" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="215" spans="2:17">
+      <c r="T214">
+        <v>9770847</v>
+      </c>
+    </row>
+    <row r="215" spans="2:20">
       <c r="B215">
         <v>213</v>
       </c>
@@ -16115,8 +16807,11 @@
       <c r="P215" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="216" spans="2:17">
+      <c r="T215">
+        <v>9770965</v>
+      </c>
+    </row>
+    <row r="216" spans="2:20">
       <c r="B216">
         <v>214</v>
       </c>
@@ -16154,8 +16849,11 @@
       <c r="Q216" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="217" spans="2:17">
+      <c r="T216">
+        <v>9770957</v>
+      </c>
+    </row>
+    <row r="217" spans="2:20">
       <c r="B217">
         <v>215</v>
       </c>
@@ -16190,8 +16888,11 @@
       <c r="P217" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="218" spans="2:17">
+      <c r="T217">
+        <v>9771006</v>
+      </c>
+    </row>
+    <row r="218" spans="2:20">
       <c r="B218">
         <v>216</v>
       </c>
@@ -16226,8 +16927,11 @@
       <c r="P218" s="2" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="219" spans="2:17">
+      <c r="T218">
+        <v>9770958</v>
+      </c>
+    </row>
+    <row r="219" spans="2:20">
       <c r="B219">
         <v>217</v>
       </c>
@@ -16259,8 +16963,11 @@
       <c r="P219" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="220" spans="2:17">
+      <c r="T219">
+        <v>9770450</v>
+      </c>
+    </row>
+    <row r="220" spans="2:20">
       <c r="B220">
         <v>218</v>
       </c>
@@ -16292,8 +16999,11 @@
       <c r="P220" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="221" spans="2:17">
+      <c r="T220">
+        <v>9771052</v>
+      </c>
+    </row>
+    <row r="221" spans="2:20">
       <c r="B221">
         <v>219</v>
       </c>
@@ -16325,8 +17035,11 @@
       <c r="Q221" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="222" spans="2:17">
+      <c r="T221">
+        <v>9770992</v>
+      </c>
+    </row>
+    <row r="222" spans="2:20">
       <c r="B222">
         <v>220</v>
       </c>
@@ -16367,8 +17080,11 @@
       <c r="Q222" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="223" spans="2:17">
+      <c r="T222">
+        <v>9771029</v>
+      </c>
+    </row>
+    <row r="223" spans="2:20">
       <c r="B223">
         <v>221</v>
       </c>
@@ -16397,8 +17113,11 @@
       <c r="P223" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="224" spans="2:17">
+      <c r="T223">
+        <v>9771027</v>
+      </c>
+    </row>
+    <row r="224" spans="2:20">
       <c r="B224">
         <v>222</v>
       </c>
@@ -16433,8 +17152,11 @@
       <c r="P224" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="225" spans="2:18">
+      <c r="T224">
+        <v>9771043</v>
+      </c>
+    </row>
+    <row r="225" spans="2:20">
       <c r="B225">
         <v>223</v>
       </c>
@@ -16466,8 +17188,11 @@
       <c r="P225" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="226" spans="2:18">
+      <c r="T225">
+        <v>9770962</v>
+      </c>
+    </row>
+    <row r="226" spans="2:20">
       <c r="B226">
         <v>224</v>
       </c>
@@ -16508,8 +17233,11 @@
       <c r="Q226" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="227" spans="2:18">
+      <c r="T226">
+        <v>9770477</v>
+      </c>
+    </row>
+    <row r="227" spans="2:20">
       <c r="B227">
         <v>225</v>
       </c>
@@ -16547,8 +17275,11 @@
       <c r="Q227" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="228" spans="2:18">
+      <c r="T227">
+        <v>9770860</v>
+      </c>
+    </row>
+    <row r="228" spans="2:20">
       <c r="B228">
         <v>226</v>
       </c>
@@ -16583,8 +17314,11 @@
       <c r="P228" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="229" spans="2:18">
+      <c r="T228">
+        <v>9770862</v>
+      </c>
+    </row>
+    <row r="229" spans="2:20">
       <c r="B229">
         <v>227</v>
       </c>
@@ -16619,8 +17353,11 @@
       <c r="P229" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="230" spans="2:18">
+      <c r="T229">
+        <v>9770886</v>
+      </c>
+    </row>
+    <row r="230" spans="2:20">
       <c r="B230">
         <v>228</v>
       </c>
@@ -16661,8 +17398,11 @@
       <c r="Q230" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="231" spans="2:18">
+      <c r="T230">
+        <v>9770665</v>
+      </c>
+    </row>
+    <row r="231" spans="2:20">
       <c r="B231">
         <v>229</v>
       </c>
@@ -16699,8 +17439,11 @@
       </c>
       <c r="Q231" s="3"/>
       <c r="R231" s="3"/>
-    </row>
-    <row r="232" spans="2:18">
+      <c r="T231">
+        <v>9770977</v>
+      </c>
+    </row>
+    <row r="232" spans="2:20">
       <c r="B232">
         <v>230</v>
       </c>
@@ -16738,8 +17481,11 @@
       <c r="Q232" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="233" spans="2:18">
+      <c r="T232">
+        <v>9770970</v>
+      </c>
+    </row>
+    <row r="233" spans="2:20">
       <c r="B233">
         <v>231</v>
       </c>
@@ -16777,8 +17523,11 @@
       <c r="P233" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="234" spans="2:18">
+      <c r="T233">
+        <v>9770713</v>
+      </c>
+    </row>
+    <row r="234" spans="2:20">
       <c r="B234">
         <v>232</v>
       </c>
@@ -16819,8 +17568,11 @@
       <c r="Q234" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="235" spans="2:18">
+      <c r="T234">
+        <v>9771011</v>
+      </c>
+    </row>
+    <row r="235" spans="2:20">
       <c r="B235">
         <v>233</v>
       </c>
@@ -16861,8 +17613,11 @@
       <c r="Q235" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="236" spans="2:18">
+      <c r="T235">
+        <v>9770295</v>
+      </c>
+    </row>
+    <row r="236" spans="2:20">
       <c r="B236">
         <v>234</v>
       </c>
@@ -16894,8 +17649,11 @@
       <c r="Q236" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="237" spans="2:18">
+      <c r="T236">
+        <v>9771077</v>
+      </c>
+    </row>
+    <row r="237" spans="2:20">
       <c r="B237">
         <v>235</v>
       </c>
@@ -16939,8 +17697,11 @@
       <c r="Q237" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="238" spans="2:18">
+      <c r="T237">
+        <v>9770942</v>
+      </c>
+    </row>
+    <row r="238" spans="2:20">
       <c r="B238">
         <v>236</v>
       </c>
@@ -16972,8 +17733,11 @@
       <c r="P238" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="239" spans="2:18">
+      <c r="T238">
+        <v>9771075</v>
+      </c>
+    </row>
+    <row r="239" spans="2:20">
       <c r="B239">
         <v>237</v>
       </c>
@@ -17008,8 +17772,11 @@
       <c r="P239" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="240" spans="2:18">
+      <c r="T239">
+        <v>9771016</v>
+      </c>
+    </row>
+    <row r="240" spans="2:20">
       <c r="B240">
         <v>238</v>
       </c>
@@ -17041,8 +17808,11 @@
       <c r="P240" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="241" spans="2:17">
+      <c r="T240">
+        <v>9771078</v>
+      </c>
+    </row>
+    <row r="241" spans="2:20">
       <c r="B241">
         <v>239</v>
       </c>
@@ -17071,8 +17841,11 @@
       <c r="P241" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="242" spans="2:17">
+      <c r="T241">
+        <v>9771073</v>
+      </c>
+    </row>
+    <row r="242" spans="2:20">
       <c r="B242">
         <v>240</v>
       </c>
@@ -17110,8 +17883,11 @@
       <c r="P242" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="243" spans="2:17">
+      <c r="T242">
+        <v>9770566</v>
+      </c>
+    </row>
+    <row r="243" spans="2:20">
       <c r="B243">
         <v>241</v>
       </c>
@@ -17143,8 +17919,11 @@
       <c r="P243" t="s">
         <v>1847</v>
       </c>
-    </row>
-    <row r="244" spans="2:17">
+      <c r="T243">
+        <v>9771071</v>
+      </c>
+    </row>
+    <row r="244" spans="2:20">
       <c r="B244">
         <v>242</v>
       </c>
@@ -17185,8 +17964,11 @@
       <c r="Q244" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="245" spans="2:17">
+      <c r="T244">
+        <v>9771022</v>
+      </c>
+    </row>
+    <row r="245" spans="2:20">
       <c r="B245">
         <v>243</v>
       </c>
@@ -17224,8 +18006,11 @@
       <c r="P245" t="s">
         <v>1856</v>
       </c>
-    </row>
-    <row r="246" spans="2:17">
+      <c r="T245">
+        <v>9770568</v>
+      </c>
+    </row>
+    <row r="246" spans="2:20">
       <c r="B246">
         <v>244</v>
       </c>
@@ -17254,8 +18039,11 @@
       <c r="P246" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="247" spans="2:17">
+      <c r="T246">
+        <v>9771019</v>
+      </c>
+    </row>
+    <row r="247" spans="2:20">
       <c r="B247">
         <v>245</v>
       </c>
@@ -17290,8 +18078,11 @@
       <c r="P247" s="16" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="248" spans="2:17">
+      <c r="T247">
+        <v>9770969</v>
+      </c>
+    </row>
+    <row r="248" spans="2:20">
       <c r="B248">
         <v>246</v>
       </c>
@@ -17323,8 +18114,11 @@
       <c r="P248" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="249" spans="2:17">
+      <c r="T248">
+        <v>9771069</v>
+      </c>
+    </row>
+    <row r="249" spans="2:20">
       <c r="B249">
         <v>247</v>
       </c>
@@ -17353,8 +18147,11 @@
       <c r="P249" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="250" spans="2:17">
+      <c r="T249">
+        <v>9771070</v>
+      </c>
+    </row>
+    <row r="250" spans="2:20">
       <c r="B250">
         <v>248</v>
       </c>
@@ -17389,8 +18186,11 @@
       <c r="P250" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="251" spans="2:17">
+      <c r="T250">
+        <v>9770594</v>
+      </c>
+    </row>
+    <row r="251" spans="2:20">
       <c r="B251">
         <v>249</v>
       </c>
@@ -17428,8 +18228,11 @@
       <c r="P251" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="252" spans="2:17">
+      <c r="T251">
+        <v>9771021</v>
+      </c>
+    </row>
+    <row r="252" spans="2:20">
       <c r="B252">
         <v>250</v>
       </c>
@@ -17464,8 +18267,11 @@
       <c r="P252" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="253" spans="2:17">
+      <c r="T252">
+        <v>9771080</v>
+      </c>
+    </row>
+    <row r="253" spans="2:20">
       <c r="B253">
         <v>251</v>
       </c>
@@ -17494,8 +18300,11 @@
       <c r="P253" t="s">
         <v>1894</v>
       </c>
-    </row>
-    <row r="254" spans="2:17">
+      <c r="T253">
+        <v>9771072</v>
+      </c>
+    </row>
+    <row r="254" spans="2:20">
       <c r="B254">
         <v>252</v>
       </c>
@@ -17530,8 +18339,11 @@
       <c r="P254" s="2" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="255" spans="2:17">
+      <c r="T254">
+        <v>9770822</v>
+      </c>
+    </row>
+    <row r="255" spans="2:20">
       <c r="B255">
         <v>253</v>
       </c>
@@ -17563,8 +18375,11 @@
       <c r="P255" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="256" spans="2:17">
+      <c r="T255">
+        <v>9771018</v>
+      </c>
+    </row>
+    <row r="256" spans="2:20">
       <c r="B256">
         <v>254</v>
       </c>
@@ -17596,8 +18411,11 @@
       <c r="P256" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="257" spans="2:18">
+      <c r="T256">
+        <v>9771015</v>
+      </c>
+    </row>
+    <row r="257" spans="2:20">
       <c r="B257">
         <v>255</v>
       </c>
@@ -17629,8 +18447,11 @@
       <c r="P257" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="258" spans="2:18">
+      <c r="T257">
+        <v>9770678</v>
+      </c>
+    </row>
+    <row r="258" spans="2:20">
       <c r="B258">
         <v>256</v>
       </c>
@@ -17662,8 +18483,11 @@
       <c r="P258" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="259" spans="2:18">
+      <c r="T258">
+        <v>9771076</v>
+      </c>
+    </row>
+    <row r="259" spans="2:20">
       <c r="B259">
         <v>257</v>
       </c>
@@ -17704,8 +18528,11 @@
       <c r="Q259" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="260" spans="2:18">
+      <c r="T259">
+        <v>9770688</v>
+      </c>
+    </row>
+    <row r="260" spans="2:20">
       <c r="B260">
         <v>258</v>
       </c>
@@ -17734,8 +18561,11 @@
       <c r="P260" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="261" spans="2:18">
+      <c r="T260">
+        <v>9771079</v>
+      </c>
+    </row>
+    <row r="261" spans="2:20">
       <c r="B261">
         <v>259</v>
       </c>
@@ -17777,8 +18607,11 @@
         <v>720</v>
       </c>
       <c r="R261" s="2"/>
-    </row>
-    <row r="262" spans="2:18">
+      <c r="T261">
+        <v>9771013</v>
+      </c>
+    </row>
+    <row r="262" spans="2:20">
       <c r="B262">
         <v>260</v>
       </c>
@@ -17816,8 +18649,11 @@
       <c r="P262" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="263" spans="2:18">
+      <c r="T262">
+        <v>9771020</v>
+      </c>
+    </row>
+    <row r="263" spans="2:20">
       <c r="B263">
         <v>261</v>
       </c>
@@ -17852,8 +18688,11 @@
       <c r="P263" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="264" spans="2:18">
+      <c r="T263">
+        <v>9771014</v>
+      </c>
+    </row>
+    <row r="264" spans="2:20">
       <c r="B264">
         <v>262</v>
       </c>
@@ -17894,8 +18733,11 @@
       <c r="Q264" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="265" spans="2:18">
+      <c r="T264">
+        <v>9770458</v>
+      </c>
+    </row>
+    <row r="265" spans="2:20">
       <c r="B265">
         <v>263</v>
       </c>
@@ -17927,8 +18769,11 @@
       <c r="P265" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="266" spans="2:18">
+      <c r="T265">
+        <v>9771074</v>
+      </c>
+    </row>
+    <row r="266" spans="2:20">
       <c r="B266">
         <v>264</v>
       </c>
@@ -17963,8 +18808,11 @@
       <c r="P266" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="267" spans="2:18">
+      <c r="T266">
+        <v>9770920</v>
+      </c>
+    </row>
+    <row r="267" spans="2:20">
       <c r="B267">
         <v>265</v>
       </c>
@@ -17999,8 +18847,11 @@
       <c r="P267" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="268" spans="2:18">
+      <c r="T267">
+        <v>9770976</v>
+      </c>
+    </row>
+    <row r="268" spans="2:20">
       <c r="B268">
         <v>266</v>
       </c>
@@ -18029,8 +18880,11 @@
       <c r="O268" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="269" spans="2:18">
+      <c r="T268">
+        <v>9771081</v>
+      </c>
+    </row>
+    <row r="269" spans="2:20">
       <c r="B269">
         <v>267</v>
       </c>
@@ -18062,8 +18916,11 @@
       <c r="P269" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="270" spans="2:18">
+      <c r="T269">
+        <v>9770948</v>
+      </c>
+    </row>
+    <row r="270" spans="2:20">
       <c r="B270">
         <v>268</v>
       </c>
@@ -18101,8 +18958,11 @@
       <c r="P270" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="271" spans="2:18">
+      <c r="T270">
+        <v>9770867</v>
+      </c>
+    </row>
+    <row r="271" spans="2:20">
       <c r="B271">
         <v>269</v>
       </c>
@@ -18131,8 +18991,11 @@
       <c r="P271" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="272" spans="2:18">
+      <c r="T271">
+        <v>9770276</v>
+      </c>
+    </row>
+    <row r="272" spans="2:20">
       <c r="B272">
         <v>270</v>
       </c>
@@ -18170,8 +19033,11 @@
       <c r="P272" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="273" spans="2:17">
+      <c r="T272">
+        <v>9770895</v>
+      </c>
+    </row>
+    <row r="273" spans="2:20">
       <c r="B273">
         <v>271</v>
       </c>
@@ -18209,8 +19075,11 @@
       <c r="P273" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="274" spans="2:17">
+      <c r="T273">
+        <v>9770534</v>
+      </c>
+    </row>
+    <row r="274" spans="2:20">
       <c r="B274">
         <v>272</v>
       </c>
@@ -18248,8 +19117,11 @@
       <c r="P274" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="275" spans="2:17">
+      <c r="T274">
+        <v>9770538</v>
+      </c>
+    </row>
+    <row r="275" spans="2:20">
       <c r="B275">
         <v>273</v>
       </c>
@@ -18290,8 +19162,11 @@
       <c r="Q275" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="276" spans="2:17">
+      <c r="T275">
+        <v>9770542</v>
+      </c>
+    </row>
+    <row r="276" spans="2:20">
       <c r="B276">
         <v>274</v>
       </c>
@@ -18329,8 +19204,11 @@
       <c r="Q276" t="s">
         <v>2005</v>
       </c>
-    </row>
-    <row r="277" spans="2:17">
+      <c r="T276">
+        <v>9770776</v>
+      </c>
+    </row>
+    <row r="277" spans="2:20">
       <c r="B277">
         <v>275</v>
       </c>
@@ -18365,8 +19243,11 @@
       <c r="P277" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="278" spans="2:17">
+      <c r="T277">
+        <v>9770918</v>
+      </c>
+    </row>
+    <row r="278" spans="2:20">
       <c r="B278">
         <v>276</v>
       </c>
@@ -18401,8 +19282,11 @@
       <c r="P278" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="279" spans="2:17">
+      <c r="T278">
+        <v>9770497</v>
+      </c>
+    </row>
+    <row r="279" spans="2:20">
       <c r="B279">
         <v>277</v>
       </c>
@@ -18443,8 +19327,11 @@
       <c r="P279" t="s">
         <v>2018</v>
       </c>
-    </row>
-    <row r="280" spans="2:17">
+      <c r="T279">
+        <v>9770912</v>
+      </c>
+    </row>
+    <row r="280" spans="2:20">
       <c r="B280">
         <v>278</v>
       </c>
@@ -18476,8 +19363,11 @@
       <c r="P280" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="281" spans="2:17">
+      <c r="T280">
+        <v>9770945</v>
+      </c>
+    </row>
+    <row r="281" spans="2:20">
       <c r="B281">
         <v>279</v>
       </c>
@@ -18518,8 +19408,11 @@
       <c r="Q281" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="282" spans="2:17">
+      <c r="T281">
+        <v>9770625</v>
+      </c>
+    </row>
+    <row r="282" spans="2:20">
       <c r="B282">
         <v>280</v>
       </c>
@@ -18557,8 +19450,11 @@
       <c r="Q282" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="283" spans="2:17">
+      <c r="T282">
+        <v>9770943</v>
+      </c>
+    </row>
+    <row r="283" spans="2:20">
       <c r="B283">
         <v>281</v>
       </c>
@@ -18596,8 +19492,11 @@
       <c r="Q283" t="s">
         <v>2037</v>
       </c>
-    </row>
-    <row r="284" spans="2:17">
+      <c r="T283">
+        <v>9770229</v>
+      </c>
+    </row>
+    <row r="284" spans="2:20">
       <c r="B284">
         <v>282</v>
       </c>
@@ -18632,8 +19531,11 @@
       <c r="P284" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="285" spans="2:17">
+      <c r="T284">
+        <v>9770928</v>
+      </c>
+    </row>
+    <row r="285" spans="2:20">
       <c r="B285">
         <v>283</v>
       </c>
@@ -18668,8 +19570,11 @@
       <c r="P285" t="s">
         <v>2046</v>
       </c>
-    </row>
-    <row r="286" spans="2:17">
+      <c r="T285">
+        <v>9771012</v>
+      </c>
+    </row>
+    <row r="286" spans="2:20">
       <c r="B286">
         <v>284</v>
       </c>
@@ -18707,8 +19612,11 @@
       <c r="P286" t="s">
         <v>2050</v>
       </c>
-    </row>
-    <row r="287" spans="2:17">
+      <c r="T286">
+        <v>9770883</v>
+      </c>
+    </row>
+    <row r="287" spans="2:20">
       <c r="B287">
         <v>285</v>
       </c>
@@ -18743,8 +19651,11 @@
       <c r="Q287" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="288" spans="2:17">
+      <c r="T287">
+        <v>9770925</v>
+      </c>
+    </row>
+    <row r="288" spans="2:20">
       <c r="B288">
         <v>286</v>
       </c>
@@ -18782,8 +19693,11 @@
       <c r="P288" t="s">
         <v>2060</v>
       </c>
-    </row>
-    <row r="289" spans="2:17">
+      <c r="T288">
+        <v>9770858</v>
+      </c>
+    </row>
+    <row r="289" spans="2:20">
       <c r="B289">
         <v>287</v>
       </c>
@@ -18818,8 +19732,11 @@
       <c r="P289" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="290" spans="2:17">
+      <c r="T289">
+        <v>9770913</v>
+      </c>
+    </row>
+    <row r="290" spans="2:20">
       <c r="B290">
         <v>288</v>
       </c>
@@ -18854,8 +19771,11 @@
       <c r="P290" t="s">
         <v>2071</v>
       </c>
-    </row>
-    <row r="291" spans="2:17">
+      <c r="T290">
+        <v>9770669</v>
+      </c>
+    </row>
+    <row r="291" spans="2:20">
       <c r="B291">
         <v>289</v>
       </c>
@@ -18890,8 +19810,11 @@
       <c r="P291" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="292" spans="2:17">
+      <c r="T291">
+        <v>9771083</v>
+      </c>
+    </row>
+    <row r="292" spans="2:20">
       <c r="B292">
         <v>290</v>
       </c>
@@ -18926,8 +19849,11 @@
       <c r="P292" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="293" spans="2:17">
+      <c r="T292">
+        <v>9771031</v>
+      </c>
+    </row>
+    <row r="293" spans="2:20">
       <c r="B293">
         <v>291</v>
       </c>
@@ -18968,8 +19894,11 @@
       <c r="Q293" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="294" spans="2:17">
+      <c r="T293">
+        <v>9770869</v>
+      </c>
+    </row>
+    <row r="294" spans="2:20">
       <c r="B294">
         <v>292</v>
       </c>
@@ -19004,8 +19933,11 @@
       <c r="P294" t="s">
         <v>2086</v>
       </c>
-    </row>
-    <row r="295" spans="2:17">
+      <c r="T294">
+        <v>9771085</v>
+      </c>
+    </row>
+    <row r="295" spans="2:20">
       <c r="B295">
         <v>293</v>
       </c>
@@ -19040,8 +19972,11 @@
       <c r="P295" t="s">
         <v>2091</v>
       </c>
-    </row>
-    <row r="296" spans="2:17">
+      <c r="T295">
+        <v>9771082</v>
+      </c>
+    </row>
+    <row r="296" spans="2:20">
       <c r="B296">
         <v>294</v>
       </c>
@@ -19076,8 +20011,11 @@
       <c r="P296" t="s">
         <v>2096</v>
       </c>
-    </row>
-    <row r="297" spans="2:17">
+      <c r="T296">
+        <v>9771084</v>
+      </c>
+    </row>
+    <row r="297" spans="2:20">
       <c r="B297">
         <v>295</v>
       </c>
@@ -19108,8 +20046,11 @@
       <c r="P297" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="298" spans="2:17">
+      <c r="T297">
+        <v>9770648</v>
+      </c>
+    </row>
+    <row r="298" spans="2:20">
       <c r="B298">
         <v>296</v>
       </c>
@@ -19141,8 +20082,11 @@
       <c r="P298" t="s">
         <v>2103</v>
       </c>
-    </row>
-    <row r="299" spans="2:17">
+      <c r="T298">
+        <v>9770978</v>
+      </c>
+    </row>
+    <row r="299" spans="2:20">
       <c r="B299">
         <v>297</v>
       </c>
@@ -19177,8 +20121,11 @@
       <c r="P299" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="300" spans="2:17">
+      <c r="T299">
+        <v>9770784</v>
+      </c>
+    </row>
+    <row r="300" spans="2:20">
       <c r="B300">
         <v>298</v>
       </c>
@@ -19216,8 +20163,11 @@
       <c r="P300" t="s">
         <v>2110</v>
       </c>
-    </row>
-    <row r="301" spans="2:17">
+      <c r="T300">
+        <v>9770979</v>
+      </c>
+    </row>
+    <row r="301" spans="2:20">
       <c r="B301">
         <v>299</v>
       </c>
@@ -19245,6 +20195,9 @@
       </c>
       <c r="P301" t="s">
         <v>2115</v>
+      </c>
+      <c r="T301">
+        <v>9770916</v>
       </c>
     </row>
   </sheetData>

--- a/democracyaction/direct_democracy.xlsx
+++ b/democracyaction/direct_democracy.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="2409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="2441">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7778,7 +7778,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1577-7667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theminjookr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npad_kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/minjootv</t>
+  </si>
+  <si>
+    <t>http://theminjoo.kr</t>
+  </si>
+  <si>
+    <t>http://blog.naver.com/yesminjoo</t>
+  </si>
+  <si>
+    <t>http://www.libertykoreaparty.kr</t>
+  </si>
+  <si>
+    <t>libertykoreaparty</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/%EC%9E%90%EC%9C%A0%ED%95%9C%EA%B5%AD%EB%8B%B9</t>
+  </si>
+  <si>
+    <t>libertykorea</t>
+  </si>
+  <si>
+    <t>http://blog.libertykoreaparty.kr/</t>
+  </si>
+  <si>
+    <t>02-3786-3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liberty_kr</t>
+  </si>
+  <si>
+    <t>http://people21.kr</t>
+  </si>
+  <si>
+    <t>saejeongchi0202</t>
+  </si>
+  <si>
+    <t>peopleparty21</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCpnetwDnXC5eFlQhjmbv12g</t>
+  </si>
+  <si>
+    <t>http://blog.naver.com/peopleparty21</t>
+  </si>
+  <si>
+    <t>02-715-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bareun.party/</t>
+  </si>
+  <si>
+    <t>02-2070-5600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bareunpartypage</t>
+  </si>
+  <si>
+    <t>bareunparty</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCgg_aa230dghE8hkc7yUXBw</t>
+  </si>
+  <si>
+    <t>http://www.justice21.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>justiceKR</t>
+  </si>
+  <si>
+    <t>kr_justice</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC4KdOy46f0HCJBqTiq7MLPg</t>
+  </si>
+  <si>
+    <t>http://blog.naver.com/justiceparty</t>
+  </si>
+  <si>
+    <t>jbhyendx</t>
+  </si>
+  <si>
+    <t>02-2038-0103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8277,7 +8382,7 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8291,7 +8396,7 @@
         <v>2402</v>
       </c>
       <c r="C2" t="s">
-        <v>2408</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="49.5">
@@ -8307,7 +8412,7 @@
         <v>2404</v>
       </c>
       <c r="C4" s="19">
-        <v>42904</v>
+        <v>42928</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="132">
@@ -8318,7 +8423,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="1.5" hidden="1"/>
+    <row r="7" spans="2:3" hidden="1"/>
     <row r="8" spans="2:3" ht="86.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8331,9 +8436,9 @@
   <dimension ref="B2:T301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="990" activePane="bottomLeft"/>
+      <pane ySplit="990" topLeftCell="A282" activePane="bottomLeft"/>
       <selection activeCell="O301" sqref="O301"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12529,8 +12634,7 @@
         <v>2117</v>
       </c>
       <c r="E106">
-        <f>groups!$B$3</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F106" t="s">
         <v>566</v>
@@ -20288,15 +20392,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:15">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -20306,48 +20410,180 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>703</v>
+      </c>
+      <c r="K2" t="s">
+        <v>571</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>733</v>
+      </c>
+      <c r="O2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" t="s">
+        <v>2409</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2410</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2412</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2413</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" t="s">
+        <v>2420</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2421</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2416</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2418</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2418</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2417</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2415</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2424</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2423</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2424</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2425</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2422</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" t="s">
+        <v>2429</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2431</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2430</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2432</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" t="s">
+        <v>2439</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2435</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2438</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2436</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>2433</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8">
         <v>6</v>
       </c>
@@ -20355,7 +20591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:15">
       <c r="B9">
         <v>7</v>
       </c>
@@ -20365,7 +20601,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/democracyaction/direct_democracy.xlsx
+++ b/democracyaction/direct_democracy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865" tabRatio="699"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865" tabRatio="699" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="4" r:id="rId1"/>
@@ -8952,7 +8952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -9006,9 +9006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:V299"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="990" topLeftCell="A250" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D258" sqref="D258"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="990" topLeftCell="A161" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="T163" sqref="T163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16492,6 +16492,9 @@
       <c r="T162">
         <v>9771103</v>
       </c>
+      <c r="U162">
+        <v>2978</v>
+      </c>
       <c r="V162" s="34"/>
     </row>
     <row r="163" spans="2:22">
@@ -16524,6 +16527,9 @@
       </c>
       <c r="Q163" s="2" t="s">
         <v>2522</v>
+      </c>
+      <c r="T163">
+        <v>9771102</v>
       </c>
       <c r="V163" s="34"/>
     </row>

--- a/democracyaction/direct_democracy.xlsx
+++ b/democracyaction/direct_democracy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865" tabRatio="699" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865" tabRatio="699"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="4" r:id="rId1"/>
@@ -8361,11 +8361,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 의원 정보 갱신
+    <t>1.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 의원 정보 화면에 즐겨찾기 버튼 추가
+2. 전면 광고가 활성화되지 않는 문제 수정
+[1.2.2]
+1. 의원 정보 갱신
 2. 의원직 상실, 당적 변경, 정당 해체 반영
 3. 쌍 ㅈ (ㅉ)으로 초성검색되지 않는 문제 수정
 4. 의원 정보에서 사이트 목록의 카페 아이콘 버튼이 동작하지 않는 문제 수정
@@ -8952,7 +8955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -8983,7 +8986,7 @@
         <v>1993</v>
       </c>
       <c r="C4" s="17">
-        <v>43698</v>
+        <v>43705</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="198.75" customHeight="1">
@@ -9006,7 +9009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:V299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="990" topLeftCell="A161" activePane="bottomLeft"/>
       <selection pane="bottomLeft" activeCell="T163" sqref="T163"/>
     </sheetView>
